--- a/ccFam/assets/ccFamGridVals.xlsx
+++ b/ccFam/assets/ccFamGridVals.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\inets\Desktop\mike\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72591394-7C9D-4E85-ACB3-022E320890D0}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1941E234-3C33-45C5-BA7F-30055FEAD1B7}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12105" xr2:uid="{C15D5ACF-C866-4AFB-A71B-AC980FF7A047}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="23">
   <si>
     <t>Facility</t>
   </si>
@@ -70,6 +70,30 @@
   </si>
   <si>
     <t>Simmons Child World</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>Age</t>
+  </si>
+  <si>
+    <t>John Doe</t>
+  </si>
+  <si>
+    <t>Melissa Brown</t>
+  </si>
+  <si>
+    <t>Robert Mitchell</t>
+  </si>
+  <si>
+    <t>Janie Douglas</t>
+  </si>
+  <si>
+    <t>Quinzy Jones</t>
+  </si>
+  <si>
+    <t>John Smith</t>
   </si>
 </sst>
 </file>
@@ -129,7 +153,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -139,6 +163,9 @@
     </xf>
     <xf numFmtId="18" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -154,6 +181,611 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>440121</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>389093</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2A6FCED5-EC84-40CC-9FA6-F2532870F547}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="16757431" y="571500"/>
+          <a:ext cx="440121" cy="389093"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>16329</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>445006</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>386443</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Picture 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{456F3313-B6FD-42A3-9B9C-868F6CE8DA7C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="16764000" y="2530929"/>
+          <a:ext cx="428677" cy="386443"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>391885</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>435013</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>386443</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="Picture 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{461C7CB8-5799-48C4-A681-47D25B860C3C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="16747672" y="1355271"/>
+          <a:ext cx="435012" cy="386443"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>10886</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>10885</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>391886</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>391885</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="9" name="Picture 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00A917F9-4463-44D3-B806-5CAACA518A2B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="16758557" y="974271"/>
+          <a:ext cx="381000" cy="381000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>609600</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>367465</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>364671</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="11" name="Picture 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{60E00CD5-F975-4159-B256-6733B553062C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="16747671" y="2139043"/>
+          <a:ext cx="367465" cy="364671"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>10886</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>10886</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>336021</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>386443</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="13" name="Picture 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{10726AEE-274C-4894-B2A5-B108753801DB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="16758557" y="1758043"/>
+          <a:ext cx="325135" cy="375557"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>609600</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>405492</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>16328</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="15" name="Picture 14">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2049792E-9AC3-4C83-A982-3A83A49BA868}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="17357271" y="571500"/>
+          <a:ext cx="408214" cy="408214"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>609600</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>405492</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>16329</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="16" name="Picture 15">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C7A044BE-6993-4480-A7B6-CBFE6A50E962}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="17357271" y="963386"/>
+          <a:ext cx="408214" cy="408214"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>609600</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>391885</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>405492</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>16328</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="17" name="Picture 16">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B855CA66-C132-4C3B-80A2-2F6B50E42083}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="17357271" y="1355271"/>
+          <a:ext cx="408214" cy="408214"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>609600</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>405492</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>16328</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="18" name="Picture 17">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BD47679E-90B3-4BFA-842D-2CB0201C3E08}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="17357271" y="1747157"/>
+          <a:ext cx="408214" cy="408214"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>609600</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>405492</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>16328</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="19" name="Picture 18">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5BC65B35-F102-4B14-8424-ACAC887BA847}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="17357271" y="2139043"/>
+          <a:ext cx="408214" cy="408214"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>609600</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>405492</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>16329</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="20" name="Picture 19">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5E227C75-45EF-46C6-BCCA-D9E056F2C157}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="17357271" y="2530929"/>
+          <a:ext cx="408214" cy="408214"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -453,10 +1085,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CCF0BD6E-6536-4492-927B-E387AB81FA81}">
-  <dimension ref="D3:R21"/>
+  <dimension ref="D3:W21"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="F1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="M23" sqref="M23"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="M2" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="W11" sqref="W11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -469,9 +1101,12 @@
     <col min="13" max="13" width="13.28515625" customWidth="1"/>
     <col min="15" max="15" width="25.5703125" customWidth="1"/>
     <col min="18" max="18" width="10.85546875" customWidth="1"/>
+    <col min="20" max="20" width="8.28515625" customWidth="1"/>
+    <col min="21" max="21" width="6.5703125" customWidth="1"/>
+    <col min="22" max="22" width="16.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="4:18" x14ac:dyDescent="0.25">
+    <row r="3" spans="4:23" x14ac:dyDescent="0.25">
       <c r="D3" s="1" t="s">
         <v>0</v>
       </c>
@@ -511,8 +1146,16 @@
       <c r="R3" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="4" spans="4:18" x14ac:dyDescent="0.25">
+      <c r="T3" s="1"/>
+      <c r="U3" s="1"/>
+      <c r="V3" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="W3" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="4:23" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D4" s="2" t="s">
         <v>5</v>
       </c>
@@ -552,8 +1195,14 @@
       <c r="R4">
         <v>2</v>
       </c>
-    </row>
-    <row r="5" spans="4:18" x14ac:dyDescent="0.25">
+      <c r="V4" t="s">
+        <v>17</v>
+      </c>
+      <c r="W4" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="4:23" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D5" s="2" t="s">
         <v>6</v>
       </c>
@@ -591,8 +1240,14 @@
       <c r="R5">
         <v>2</v>
       </c>
-    </row>
-    <row r="6" spans="4:18" x14ac:dyDescent="0.25">
+      <c r="V5" t="s">
+        <v>18</v>
+      </c>
+      <c r="W5" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="4:23" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="O6" s="2" t="s">
         <v>5</v>
       </c>
@@ -601,14 +1256,20 @@
       </c>
       <c r="Q6" s="4">
         <f ca="1">RANDBETWEEN(20,40)</f>
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="R6" s="4">
         <f ca="1">RANDBETWEEN(1,4)</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="7" spans="4:18" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+      <c r="V6" t="s">
+        <v>19</v>
+      </c>
+      <c r="W6" s="5">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="4:23" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="O7" s="2" t="s">
         <v>5</v>
       </c>
@@ -617,14 +1278,20 @@
       </c>
       <c r="Q7" s="4">
         <f t="shared" ref="Q7:Q21" ca="1" si="0">RANDBETWEEN(20,40)</f>
-        <v>25</v>
+        <v>37</v>
       </c>
       <c r="R7" s="4">
         <f t="shared" ref="R7:R21" ca="1" si="1">RANDBETWEEN(1,4)</f>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="4:18" x14ac:dyDescent="0.25">
+        <v>4</v>
+      </c>
+      <c r="V7" t="s">
+        <v>20</v>
+      </c>
+      <c r="W7" s="5">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="4:23" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="O8" s="2" t="s">
         <v>6</v>
       </c>
@@ -633,14 +1300,20 @@
       </c>
       <c r="Q8" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="R8" s="4">
         <f t="shared" ca="1" si="1"/>
         <v>2</v>
       </c>
-    </row>
-    <row r="9" spans="4:18" x14ac:dyDescent="0.25">
+      <c r="V8" t="s">
+        <v>21</v>
+      </c>
+      <c r="W8" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="4:23" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="O9" s="2" t="s">
         <v>6</v>
       </c>
@@ -649,14 +1322,20 @@
       </c>
       <c r="Q9" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>36</v>
+        <v>22</v>
       </c>
       <c r="R9" s="4">
         <f t="shared" ca="1" si="1"/>
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="4:18" x14ac:dyDescent="0.25">
+      <c r="V9" t="s">
+        <v>22</v>
+      </c>
+      <c r="W9" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="4:23" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="O10" s="2" t="s">
         <v>6</v>
       </c>
@@ -665,14 +1344,14 @@
       </c>
       <c r="Q10" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>39</v>
+        <v>28</v>
       </c>
       <c r="R10" s="4">
         <f t="shared" ca="1" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="4:18" x14ac:dyDescent="0.25">
+    <row r="11" spans="4:23" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="O11" s="2" t="s">
         <v>6</v>
       </c>
@@ -681,14 +1360,14 @@
       </c>
       <c r="Q11" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>37</v>
+        <v>20</v>
       </c>
       <c r="R11" s="4">
         <f t="shared" ca="1" si="1"/>
         <v>4</v>
       </c>
     </row>
-    <row r="12" spans="4:18" x14ac:dyDescent="0.25">
+    <row r="12" spans="4:23" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="O12" s="2" t="s">
         <v>13</v>
       </c>
@@ -697,14 +1376,14 @@
       </c>
       <c r="Q12" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="R12" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="13" spans="4:18" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="4:23" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="O13" s="2" t="s">
         <v>13</v>
       </c>
@@ -713,14 +1392,14 @@
       </c>
       <c r="Q13" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>25</v>
+        <v>39</v>
       </c>
       <c r="R13" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="14" spans="4:18" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="4:23" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="O14" s="2" t="s">
         <v>13</v>
       </c>
@@ -729,14 +1408,14 @@
       </c>
       <c r="Q14" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="R14" s="4">
         <f t="shared" ca="1" si="1"/>
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="4:18" x14ac:dyDescent="0.25">
+    <row r="15" spans="4:23" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="O15" s="2" t="s">
         <v>13</v>
       </c>
@@ -752,7 +1431,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="16" spans="4:18" x14ac:dyDescent="0.25">
+    <row r="16" spans="4:23" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="O16" s="2" t="s">
         <v>14</v>
       </c>
@@ -761,7 +1440,7 @@
       </c>
       <c r="Q16" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="R16" s="4">
         <f t="shared" ca="1" si="1"/>
@@ -777,11 +1456,11 @@
       </c>
       <c r="Q17" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="R17" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18" spans="15:18" x14ac:dyDescent="0.25">
@@ -793,11 +1472,11 @@
       </c>
       <c r="Q18" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="R18" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19" spans="15:18" x14ac:dyDescent="0.25">
@@ -809,11 +1488,11 @@
       </c>
       <c r="Q19" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="R19" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20" spans="15:18" x14ac:dyDescent="0.25">
@@ -825,11 +1504,11 @@
       </c>
       <c r="Q20" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="R20" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="21" spans="15:18" x14ac:dyDescent="0.25">
@@ -841,15 +1520,16 @@
       </c>
       <c r="Q21" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="R21" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>